--- a/Consumer/Hershey's.xlsx
+++ b/Consumer/Hershey's.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257A754-997F-9943-9A26-689E71DEDA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C398E9C-6E9E-8448-8ABF-C72B5C11CF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -329,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Hershey's</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -878,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -963,10 +971,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -990,12 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,10 +1005,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1020,6 +1014,26 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,6 +2399,425 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1uwu2&amp;q=XNYS%3aHSY&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1uwu2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>276.88049999999998</v>
+    <v>201.42</v>
+    <v>0.31580000000000003</v>
+    <v>-0.69</v>
+    <v>-2.5109999999999998E-3</v>
+    <v>USD</v>
+    <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
+    <v>18075</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>P O BOX 810-EXTERNAL RPTG &amp; COMPLIANCE, 100 CRYSTAL A DRIVE, HERSHEY, PA, 17033-0810 US</v>
+    <v>275.89</v>
+    <v>Food &amp; Tobacco</v>
+    <v>Stock</v>
+    <v>45055.978558008595</v>
+    <v>0</v>
+    <v>273.60000000000002</v>
+    <v>56021623104</v>
+    <v>THE HERSHEY COMPANY</v>
+    <v>THE HERSHEY COMPANY</v>
+    <v>275.64999999999998</v>
+    <v>33.258200000000002</v>
+    <v>274.77</v>
+    <v>274.08</v>
+    <v>204398800</v>
+    <v>HSY</v>
+    <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
+    <v>902972</v>
+    <v>936763</v>
+    <v>1927</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2688,7 +3121,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV113" sqref="AV113"/>
+      <selection pane="bottomRight" activeCell="AO102" sqref="AO102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2699,8 +3132,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1985</v>
@@ -3096,21 +3529,21 @@
         <v>12417000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3536,16 +3969,16 @@
         <v>4498785000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3804,7 +4237,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3959,16 +4392,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4344,21 +4777,21 @@
         <v>2236009000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4767,16 +5200,16 @@
         <v>2236009000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4903,15 +5336,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>5.0728689275876082</v>
+        <v>5.3767196802393711</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>32.134707253147312</v>
+        <v>34.05948692407727</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>29.228599224931376</v>
+        <v>30.979311100247958</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5152,7 +5585,7 @@
         <v>378959000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5280,7 +5713,7 @@
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6386,7 +6819,7 @@
     </row>
     <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7135,7 +7568,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -12525,7 +12958,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
@@ -13036,10 +13469,10 @@
       <c r="AM83" s="1">
         <v>-186963000</v>
       </c>
-      <c r="AT83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU83" s="34"/>
+      <c r="AT83" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13159,10 +13592,10 @@
       <c r="AM84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU84" s="36"/>
+      <c r="AT84" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13283,7 +13716,7 @@
         <v>92</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU85" s="24">
         <f>AM17</f>
@@ -13409,7 +13842,7 @@
         <v>92</v>
       </c>
       <c r="AT86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU86" s="24">
         <f>AM56</f>
@@ -13535,7 +13968,7 @@
         <v>2327837000</v>
       </c>
       <c r="AT87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU87" s="24">
         <f>AM61</f>
@@ -13660,17 +14093,17 @@
       <c r="AM88" s="1">
         <v>0</v>
       </c>
-      <c r="AT88" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU88" s="38">
+      <c r="AT88" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>2.8709475105633177E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AM89" si="13">(-1*B88)/B3</f>
@@ -13825,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="AT89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU89" s="24">
         <f>AM27</f>
@@ -14076,10 +14509,10 @@
       <c r="AM91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT91" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU91" s="38">
+      <c r="AT91" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.14201560609909597</v>
       </c>
@@ -14202,10 +14635,10 @@
       <c r="AM92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT92" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU92" s="40">
+      <c r="AT92" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>2.4632281597719772E-2</v>
       </c>
@@ -14328,10 +14761,10 @@
       <c r="AM93" s="1">
         <v>-787376000</v>
       </c>
-      <c r="AT93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU93" s="36"/>
+      <c r="AT93" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14452,9 +14885,9 @@
         <v>-787376000</v>
       </c>
       <c r="AT94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU94" s="41">
+        <v>135</v>
+      </c>
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14576,11 +15009,12 @@
       <c r="AM95" s="1">
         <v>-4741000</v>
       </c>
-      <c r="AT95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU95" s="43">
-        <v>0.31</v>
+      <c r="AT95" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU95" s="58" cm="1">
+        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
+        <v>0.31580000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14702,9 +15136,9 @@
         <v>92</v>
       </c>
       <c r="AT96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU96" s="41">
+        <v>137</v>
+      </c>
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14826,12 +15260,12 @@
       <c r="AM97" s="1">
         <v>-388964000</v>
       </c>
-      <c r="AT97" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU97" s="40">
+      <c r="AT97" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>5.4295500000000003E-2</v>
+        <v>5.454519E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14952,10 +15386,10 @@
       <c r="AM98" s="1">
         <v>-775030000</v>
       </c>
-      <c r="AT98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU98" s="36"/>
+      <c r="AT98" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15076,7 +15510,7 @@
         <v>-246990000</v>
       </c>
       <c r="AT99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AU99" s="24">
         <f>AU86+AU87</f>
@@ -15201,12 +15635,12 @@
       <c r="AM100" s="10">
         <v>-1415725000</v>
       </c>
-      <c r="AT100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU100" s="38">
+      <c r="AT100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>8.3115169871901137E-2</v>
+        <v>7.8788211616410933E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15327,12 +15761,12 @@
       <c r="AM101" s="1">
         <v>9887000</v>
       </c>
-      <c r="AT101" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU101" s="58">
-        <f>AO116*AM34</f>
-        <v>52855712780</v>
+      <c r="AT101" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU101" s="50" cm="1">
+        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
+        <v>56021623104</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15453,12 +15887,12 @@
       <c r="AM102" s="10">
         <v>134623000</v>
       </c>
-      <c r="AT102" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU102" s="38">
+      <c r="AT102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.91688483012809885</v>
+        <v>0.92121178838358908</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15579,12 +16013,12 @@
       <c r="AM103" s="1">
         <v>329266000</v>
       </c>
-      <c r="AT103" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU103" s="44">
+      <c r="AT103" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>57647057780</v>
+        <v>60812968104</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15705,14 +16139,14 @@
       <c r="AM104" s="11">
         <v>463889000</v>
       </c>
-      <c r="AT104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU104" s="36"/>
+      <c r="AT104" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -15870,11 +16304,11 @@
       <c r="AR105" s="15"/>
       <c r="AS105" s="15"/>
       <c r="AT105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.1830036563547177E-2</v>
+        <v>5.2188405442738832E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15995,33 +16429,33 @@
       <c r="AM106" s="1">
         <v>1808356000</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="39">
         <f>AM106*(1+$AU$106)</f>
         <v>1873443542.4482684</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="39">
         <f t="shared" ref="AO106:AR106" si="17">AN106*(1+$AU$106)</f>
         <v>1940873758.6742415</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="39">
         <f t="shared" si="17"/>
         <v>2010730967.7384081</v>
       </c>
-      <c r="AQ106" s="45">
+      <c r="AQ106" s="39">
         <f t="shared" si="17"/>
         <v>2083102523.568522</v>
       </c>
-      <c r="AR106" s="45">
+      <c r="AR106" s="39">
         <f t="shared" si="17"/>
         <v>2158078924.1925478</v>
       </c>
-      <c r="AS106" s="46" t="s">
+      <c r="AS106" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AT106" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="42">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>3.5992659879066038E-2</v>
       </c>
@@ -16066,150 +16500,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="46"/>
-      <c r="AQ107" s="46"/>
-      <c r="AR107" s="49">
+      <c r="AN107" s="40"/>
+      <c r="AO107" s="40"/>
+      <c r="AP107" s="40"/>
+      <c r="AQ107" s="40"/>
+      <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>82446063465.405533</v>
-      </c>
-      <c r="AS107" s="50" t="s">
+        <v>81359346430.083694</v>
+      </c>
+      <c r="AS107" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AT107" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU107" s="52">
+      <c r="AU107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="49">
+      <c r="AN108" s="43">
         <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
         <v>1873443542.4482684</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="43">
         <f t="shared" si="18"/>
         <v>1940873758.6742415</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="43">
         <f t="shared" si="18"/>
         <v>2010730967.7384081</v>
       </c>
-      <c r="AQ108" s="49">
+      <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
         <v>2083102523.568522</v>
       </c>
-      <c r="AR108" s="49">
+      <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>84604142389.598083</v>
-      </c>
-      <c r="AS108" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT108" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU108" s="54">
+        <v>83517425354.276245</v>
+      </c>
+      <c r="AS108" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT108" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU108" s="48">
         <f>AU105</f>
-        <v>5.1830036563547177E-2</v>
+        <v>5.2188405442738832E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO109" s="56"/>
+      <c r="AN109" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO110" s="58">
+      <c r="AN110" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>72680099218.010956</v>
+        <v>71719727919.824905</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO111" s="58">
+      <c r="AN111" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO111" s="50">
         <f>AM40</f>
         <v>463889000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO112" s="58">
+      <c r="AN112" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO112" s="50">
         <f>AU99</f>
         <v>4791345000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO113" s="58">
+      <c r="AN113" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>68352643218.010956</v>
+        <v>67392271919.824905</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO114" s="59">
+      <c r="AN114" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO114" s="51">
         <f>AM34*(1+(5*AS16))</f>
         <v>215588793.22966194</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO115" s="61">
+      <c r="AN115" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>317.05100341276278</v>
+        <v>312.59635953355615</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO116" s="63">
-        <v>254.41</v>
+      <c r="AN116" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO116" s="59" cm="1">
+        <f t="array" ref="AO116">_FV(A1,"Price")</f>
+        <v>274.08</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO117" s="65">
+      <c r="AN117" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>0.24622068084101567</v>
+        <v>0.14052962468460373</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO118" s="66" t="str">
+      <c r="AN118" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO118" s="56" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/HSY" display="ROIC.AI | HSY" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Hershey's.xlsx
+++ b/Consumer/Hershey's.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C398E9C-6E9E-8448-8ABF-C72B5C11CF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCECDAF4-7EC7-BE43-8821-6E2748E5821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2520,10 +2520,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>276.88049999999998</v>
-    <v>201.42</v>
-    <v>0.31580000000000003</v>
-    <v>-0.69</v>
-    <v>-2.5109999999999998E-3</v>
+    <v>211.49</v>
+    <v>0.31130000000000002</v>
+    <v>-1.4950000000000001</v>
+    <v>-5.7430000000000007E-3</v>
     <v>USD</v>
     <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
     <v>18075</v>
@@ -2531,24 +2531,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P O BOX 810-EXTERNAL RPTG &amp; COMPLIANCE, 100 CRYSTAL A DRIVE, HERSHEY, PA, 17033-0810 US</v>
-    <v>275.89</v>
+    <v>261.3</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45055.978558008595</v>
+    <v>45100.775422904684</v>
     <v>0</v>
-    <v>273.60000000000002</v>
-    <v>56021623104</v>
+    <v>258.70999999999998</v>
+    <v>52901475422</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
-    <v>275.64999999999998</v>
-    <v>33.258200000000002</v>
-    <v>274.77</v>
-    <v>274.08</v>
+    <v>261.3</v>
+    <v>31.587299999999999</v>
+    <v>260.31</v>
+    <v>258.815</v>
     <v>204398800</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>902972</v>
-    <v>936763</v>
+    <v>441033</v>
+    <v>1132530</v>
     <v>1927</v>
   </rv>
   <rv s="2">
@@ -2701,10 +2701,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3121,7 +3121,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO102" sqref="AO102"/>
+      <selection pane="bottomRight" activeCell="AN100" sqref="AN100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5336,15 +5336,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>5.3767196802393711</v>
+        <v>5.0772610334251054</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>34.05948692407727</v>
+        <v>32.162529583534216</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>30.979311100247958</v>
+        <v>29.253905437867324</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.31580000000000003</v>
+        <v>0.31130000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>5.454519E-2</v>
+        <v>5.4351465000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>7.8788211616410933E-2</v>
+        <v>8.3049241915254271E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56021623104</v>
+        <v>52901475422</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.92121178838358908</v>
+        <v>0.91695075808474569</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>60812968104</v>
+        <v>57692820422</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.2188405442738832E-2</v>
+        <v>5.1883309348100218E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16506,7 +16506,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>81359346430.083694</v>
+        <v>82282685835.09346</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>83517425354.276245</v>
+        <v>84440764759.286011</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16547,7 +16547,7 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>5.2188405442738832E-2</v>
+        <v>5.1883309348100218E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>71719727919.824905</v>
+        <v>72535716267.870193</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16589,7 +16589,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>67392271919.824905</v>
+        <v>68208260267.870193</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16607,7 +16607,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>312.59635953355615</v>
+        <v>316.3812888697301</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>274.08</v>
+        <v>258.815</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>0.14052962468460373</v>
+        <v>0.22242253683028457</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Hershey's.xlsx
+++ b/Consumer/Hershey's.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCECDAF4-7EC7-BE43-8821-6E2748E5821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC129A4-DDAA-8A4C-AC4A-1211529743D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$107</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$B$107:$AM$107</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$B$1:$AM$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$28:$AM$28</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$107:$AM$107</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$1:$AM$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$B$28:$AM$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$A$107</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +363,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +409,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +525,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +563,48 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +879,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +893,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,101 +940,101 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1085,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>HSY</a:t>
+              <a:t>Hershey's</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1123,10 +1123,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6416528925619828E-2"/>
-          <c:y val="0.10822182079051315"/>
-          <c:w val="0.87730247933884298"/>
-          <c:h val="0.76912123909868013"/>
+          <c:x val="9.3606611570247925E-2"/>
+          <c:y val="0.13793646673843524"/>
+          <c:w val="0.84821157024793403"/>
+          <c:h val="0.64416847960918877"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1180,6 +1180,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
@@ -1305,7 +1428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84BE-F248-B5D8-A5330AA8A187}"/>
+              <c16:uniqueId val="{00000000-82E1-3147-A826-739356E68586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1314,11 +1437,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1356,132 +1479,255 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>274000000</c:v>
+                  <c:v>112100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>319900000</c:v>
+                  <c:v>132800000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340000000</c:v>
+                  <c:v>148200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>357400000</c:v>
+                  <c:v>213900000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>355700000</c:v>
+                  <c:v>171100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>435400000</c:v>
+                  <c:v>215900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>448800000</c:v>
+                  <c:v>219500000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>498100000</c:v>
+                  <c:v>242600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>520000000</c:v>
+                  <c:v>193300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>462100000</c:v>
+                  <c:v>184200000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>599800000</c:v>
+                  <c:v>281900000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>613300000</c:v>
+                  <c:v>273200000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>706800000</c:v>
+                  <c:v>336300000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>715200000</c:v>
+                  <c:v>340900000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>891200000</c:v>
+                  <c:v>460300000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>722603000</c:v>
+                  <c:v>334543000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>534035000</c:v>
+                  <c:v>207156000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>815473000</c:v>
+                  <c:v>403578000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>906026000</c:v>
+                  <c:v>457584000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1025309000</c:v>
+                  <c:v>590879000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>990958000</c:v>
+                  <c:v>493244000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1076413000</c:v>
+                  <c:v>559061000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>651167000</c:v>
+                  <c:v>214154000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>841191000</c:v>
+                  <c:v>311405000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>944878000</c:v>
+                  <c:v>435994000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1103684000</c:v>
+                  <c:v>509799000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1273388000</c:v>
+                  <c:v>628962000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1324125000</c:v>
+                  <c:v>660931000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1543866000</c:v>
+                  <c:v>820470000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1605173000</c:v>
+                  <c:v>846912000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1227758000</c:v>
+                  <c:v>512951000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1493266000</c:v>
+                  <c:v>720044000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1499031000</c:v>
+                  <c:v>782981000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1858574000</c:v>
+                  <c:v>1177562000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1827390000</c:v>
+                  <c:v>1149692000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1946670000</c:v>
+                  <c:v>1278708000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2236765000</c:v>
+                  <c:v>1477512000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2433587000</c:v>
+                  <c:v>1644817000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84BE-F248-B5D8-A5330AA8A187}"/>
+              <c16:uniqueId val="{00000001-82E1-3147-A826-739356E68586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1490,11 +1736,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1532,9 +1778,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1657,7 +2026,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-84BE-F248-B5D8-A5330AA8A187}"/>
+              <c16:uniqueId val="{00000002-82E1-3147-A826-739356E68586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1671,11 +2040,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="484472463"/>
-        <c:axId val="484613135"/>
+        <c:axId val="942415248"/>
+        <c:axId val="942231312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="484472463"/>
+        <c:axId val="942415248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +2072,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1715,7 +2084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484613135"/>
+        <c:crossAx val="942231312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1723,7 +2092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484613135"/>
+        <c:axId val="942231312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1772,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484472463"/>
+        <c:crossAx val="942415248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,6 +2155,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33914283855013994"/>
+          <c:y val="0.91186146930527101"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="5.7358534299315526E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2365,20 +2744,20 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626C3574-594B-D8F9-9E6A-2C28610D831A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA305E52-61BC-192F-4F97-4CBCB1287CF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,6 +2776,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2521,9 +2954,9 @@
     <v>Powered by Refinitiv</v>
     <v>276.88049999999998</v>
     <v>211.49</v>
-    <v>0.31130000000000002</v>
-    <v>-1.4950000000000001</v>
-    <v>-5.7430000000000007E-3</v>
+    <v>0.29260000000000003</v>
+    <v>-2.42</v>
+    <v>-1.0032000000000001E-2</v>
     <v>USD</v>
     <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
     <v>18075</v>
@@ -2531,24 +2964,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P O BOX 810-EXTERNAL RPTG &amp; COMPLIANCE, 100 CRYSTAL A DRIVE, HERSHEY, PA, 17033-0810 US</v>
-    <v>261.3</v>
+    <v>241</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45100.775422904684</v>
+    <v>45119.999673356251</v>
     <v>0</v>
-    <v>258.70999999999998</v>
-    <v>52901475422</v>
+    <v>237.88</v>
+    <v>48810433440</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
-    <v>261.3</v>
-    <v>31.587299999999999</v>
-    <v>260.31</v>
-    <v>258.815</v>
+    <v>240</v>
+    <v>28.9771</v>
+    <v>241.22</v>
+    <v>238.8</v>
     <v>204398800</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>441033</v>
-    <v>1132530</v>
+    <v>1470263</v>
+    <v>1191338</v>
     <v>1927</v>
   </rv>
   <rv s="2">
@@ -2701,10 +3134,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3118,10 +3551,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN100" sqref="AN100"/>
+      <selection pane="bottomRight" activeCell="AO100" sqref="AO100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3249,19 +3682,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3270,127 +3703,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3513,37 +3946,37 @@
       <c r="AM3" s="1">
         <v>10419294000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>11209000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>11632000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>12031000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>12014000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>12417000000</v>
+      <c r="AN3" s="24">
+        <v>11255000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>11734000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>12182000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>12621000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>13168000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3696,23 +4129,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>7.5792659272307716E-2</v>
+        <v>8.0207545731985297E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>3.7737532340083924E-2</v>
+        <v>4.2558862727676505E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>3.4301925722145743E-2</v>
+        <v>3.8179648883586159E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>-1.4130163743661939E-3</v>
+        <v>3.6036775570513768E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>3.3544198435158989E-2</v>
+        <v>4.334046430552263E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3727,7 +4160,7 @@
         <v>0.1269749036631421</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>9.0392015408114187E-2</v>
       </c>
     </row>
@@ -3969,16 +4402,16 @@
         <v>4498785000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4112,7 +4545,7 @@
         <v>0.15790000000000001</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.173558400406016</v>
       </c>
     </row>
@@ -4237,7 +4670,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -4392,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4409,118 +4842,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4536,7 +4969,7 @@
       </c>
       <c r="AV10" s="20">
         <f>AM89</f>
-        <v>0</v>
+        <v>7.5569035675545765E-2</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4544,118 +4977,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4777,21 +5210,21 @@
         <v>2236009000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5012,73 +5445,73 @@
         <v>163300000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1">
         <v>-8330000</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -5200,16 +5633,16 @@
         <v>2236009000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5330,95 +5763,95 @@
       <c r="AM16" s="1">
         <v>8156518000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>7.5383794892730453E-3</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="59">
         <f>AU101/AM3</f>
-        <v>5.0772610334251054</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>4.6846200366358799</v>
+      </c>
+      <c r="AU16" s="59">
         <f>AU101/AM28</f>
-        <v>32.162529583534216</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>29.253905437867324</v>
+        <v>29.675297276231944</v>
+      </c>
+      <c r="AV16" s="61">
+        <f>AU101/AM107</f>
+        <v>26.991606431476988</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>99678000</v>
@@ -5466,7 +5899,7 @@
         <v>137557000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5585,10 +6018,19 @@
         <v>378959000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5706,14 +6148,41 @@
       <c r="AM19" s="10">
         <v>2433587000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="64">
+        <v>3079000000</v>
+      </c>
+      <c r="AO19" s="64">
+        <v>3250000000</v>
+      </c>
+      <c r="AP19" s="64">
+        <v>3409000000</v>
+      </c>
+      <c r="AQ19" s="64">
+        <v>3477000000</v>
+      </c>
+      <c r="AR19" s="64">
+        <v>3586000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-4327456000</v>
       </c>
+      <c r="AT19" s="59">
+        <f>AU101/AN3</f>
+        <v>4.3367777378942689</v>
+      </c>
+      <c r="AU19" s="60">
+        <f>AO116/AN31</f>
+        <v>24.97907949790795</v>
+      </c>
+      <c r="AV19" s="61">
+        <f>AU101/AN106</f>
+        <v>27.560944912478824</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5861,11 +6330,31 @@
         <v>0.14902114893638885</v>
       </c>
       <c r="AM20" s="15">
-        <f t="shared" ref="AM20" si="5">(AM19/AL19)-1</f>
+        <f t="shared" ref="AM20:AR20" si="5">(AM19/AL19)-1</f>
         <v>8.7994044971197338E-2</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26521057188421859</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="5"/>
+        <v>5.5537512179278936E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="5"/>
+        <v>4.8923076923076847E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="5"/>
+        <v>1.9947198591962367E-2</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="5"/>
+        <v>3.1348863963186702E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5983,8 +6472,34 @@
       <c r="AM21" s="2">
         <v>0.2336</v>
       </c>
+      <c r="AN21" s="65">
+        <f>AN19/AN3</f>
+        <v>0.2735673034207019</v>
+      </c>
+      <c r="AO21" s="65">
+        <f t="shared" ref="AO21:AR21" si="6">AO19/AO3</f>
+        <v>0.27697289926708712</v>
+      </c>
+      <c r="AP21" s="65">
+        <f t="shared" si="6"/>
+        <v>0.27983910687900182</v>
+      </c>
+      <c r="AQ21" s="65">
+        <f t="shared" si="6"/>
+        <v>0.27549322557642025</v>
+      </c>
+      <c r="AR21" s="65">
+        <f t="shared" si="6"/>
+        <v>0.27232685297691372</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6102,8 +6617,16 @@
       <c r="AM22" s="10">
         <v>2260787000</v>
       </c>
+      <c r="AU22" s="62">
+        <f>(-1*AM98)/AU101</f>
+        <v>1.5878367500110444E-2</v>
+      </c>
+      <c r="AV22" s="63">
+        <f>AM107/AU101</f>
+        <v>3.7048554428899164E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6222,7 +6745,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6341,7 +6864,7 @@
         <v>-343716000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6460,7 +6983,7 @@
         <v>1917071000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6579,7 +7102,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6698,7 +7221,7 @@
         <v>272254000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6816,10 +7339,25 @@
       <c r="AM28" s="11">
         <v>1644817000</v>
       </c>
+      <c r="AN28" s="66">
+        <v>1954000000</v>
+      </c>
+      <c r="AO28" s="66">
+        <v>2100000000</v>
+      </c>
+      <c r="AP28" s="66">
+        <v>2299000000</v>
+      </c>
+      <c r="AQ28" s="66">
+        <v>2257000000</v>
+      </c>
+      <c r="AR28" s="66">
+        <v>2327000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6835,143 +7373,163 @@
         <v>0.44331983805668007</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AK29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AK29" si="7">(F28/E28)-1</f>
         <v>-0.20009350163627859</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26183518410286388</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6674386289948995E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10523917995444187</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.20321516900247316</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.7077082255561287E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53040173724212814</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.0862007804185909E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23096632503660319</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3678263455248363E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3502493399823996</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.27320660438844235</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.38077915245573812</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94818397729247517</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13381799800782002</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29130170635336894</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.16523687590860392</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13343700075419052</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.61693983304147493</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45411713066298076</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.40008670381015077</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16927985247503408</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2337450642311969</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0828189938342927E-2</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24138525806778621</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2227869391933783E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.39432786405199127</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.40372862125232234</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.7407158451427991E-2</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50394709450165465</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.3667543619783959E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11221788096290131</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29" si="7">(AL28/AK28)-1</f>
+        <f t="shared" ref="AL29" si="8">(AL28/AK28)-1</f>
         <v>0.15547255511031444</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" ref="AM29" si="8">(AM28/AL28)-1</f>
+        <f t="shared" ref="AM29:AR29" si="9">(AM28/AL28)-1</f>
         <v>0.11323427491621052</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.18797410289412131</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="9"/>
+        <v>7.4718526100307159E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="9"/>
+        <v>9.4761904761904825E-2</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="9"/>
+        <v>-1.8268812527185707E-2</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="9"/>
+        <v>3.1014621178555579E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7089,8 +7647,28 @@
       <c r="AM30" s="2">
         <v>0.15790000000000001</v>
       </c>
+      <c r="AN30" s="67">
+        <f>AN28/AN3</f>
+        <v>0.1736117281208352</v>
+      </c>
+      <c r="AO30" s="67">
+        <f t="shared" ref="AO30:AR30" si="10">AO28/AO3</f>
+        <v>0.17896710414181013</v>
+      </c>
+      <c r="AP30" s="67">
+        <f t="shared" si="10"/>
+        <v>0.18872106386471843</v>
+      </c>
+      <c r="AQ30" s="67">
+        <f t="shared" si="10"/>
+        <v>0.17882893590048332</v>
+      </c>
+      <c r="AR30" s="67">
+        <f t="shared" si="10"/>
+        <v>0.17671628189550426</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7208,8 +7786,23 @@
       <c r="AM31" s="12">
         <v>7.96</v>
       </c>
+      <c r="AN31" s="68">
+        <v>9.56</v>
+      </c>
+      <c r="AO31" s="68">
+        <v>10.27</v>
+      </c>
+      <c r="AP31" s="68">
+        <v>10.91</v>
+      </c>
+      <c r="AQ31" s="68">
+        <v>11.04</v>
+      </c>
+      <c r="AR31" s="68">
+        <v>11.38</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7568,7 +8161,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7576,147 +8169,147 @@
         <v>-1.5567086842105263E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AK35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AK35" si="11">(D34-C34)/C34</f>
         <v>-3.3738611901401198E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9849715219450357E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.431929544412178E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.3474171601526162E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.3015039364954709E-4</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.9855162889607565E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1573143872430762E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.8087242314433695E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5588825827584784E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-8.1067574823880786E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.0802217223650386E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.3973280780572941E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.0802619898049652E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.0931211386608455E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-9.9036530496193417E-4</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.6361908416845277E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.9859323583299446E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8716542904203397E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.5198397308958081E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.6094177458686601E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.6171192915310027E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.8445592507241767E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3030341456162521E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.7555841830607656E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.7107154177141543E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.880684066997508E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.9663436061610691E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.0413594890912531E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.8617932101922727E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.423283828308052E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-7.2548582469438563E-3</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.2880014222754536E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.28592485864191974</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.7472320099072665E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" ref="AL35" si="10">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="12">(AL34-AK34)/AK34</f>
         <v>-0.23060571496289273</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" ref="AM35" si="11">(AM34-AL34)/AL34</f>
+        <f t="shared" ref="AM35" si="13">(AM34-AL34)/AL34</f>
         <v>0</v>
       </c>
     </row>
@@ -7725,118 +8318,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7844,118 +8437,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7963,31 +8556,31 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1">
         <v>26700000</v>
@@ -8082,118 +8675,118 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1">
         <v>97131000</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8201,31 +8794,31 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>26700000</v>
@@ -8320,31 +8913,31 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1">
         <v>331700000</v>
@@ -8439,31 +9032,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1">
         <v>445700000</v>
@@ -8558,31 +9151,31 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1">
         <v>144600000</v>
@@ -8677,31 +9270,31 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10">
         <v>948700000</v>
@@ -8796,31 +9389,31 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1">
         <v>1468400000</v>
@@ -8915,67 +9508,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>501955000</v>
@@ -9034,31 +9627,31 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1">
         <v>453600000</v>
@@ -9153,31 +9746,31 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1">
         <v>453600000</v>
@@ -9272,118 +9865,118 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1">
         <v>93089000</v>
       </c>
       <c r="AM49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9391,73 +9984,73 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1">
         <v>13815000</v>
@@ -9475,10 +10068,10 @@
         <v>12448000</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1">
         <v>36390000</v>
@@ -9510,31 +10103,31 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1">
         <v>20300000</v>
@@ -9629,31 +10222,31 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1">
         <v>1942300000</v>
@@ -9748,118 +10341,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9867,31 +10460,31 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11">
         <v>2891000000</v>
@@ -9986,31 +10579,31 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1">
         <v>115400000</v>
@@ -10105,31 +10698,31 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>324700000</v>
@@ -10224,73 +10817,73 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1">
         <v>15189000</v>
@@ -10343,118 +10936,118 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10462,31 +11055,31 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1">
         <v>356100000</v>
@@ -10581,31 +11174,31 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10">
         <v>796200000</v>
@@ -10700,31 +11293,31 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>157200000</v>
@@ -10819,118 +11412,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10938,31 +11531,31 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>193400000</v>
@@ -11010,13 +11603,13 @@
         <v>3646000</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1">
         <v>35657000</v>
@@ -11057,31 +11650,31 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>303100000</v>
@@ -11176,31 +11769,31 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1">
         <v>653700000</v>
@@ -11295,118 +11888,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11414,31 +12007,31 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10">
         <v>1449900000</v>
@@ -11533,46 +12126,46 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1">
         <v>180000000</v>
@@ -11652,31 +12245,31 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1">
         <v>1522900000</v>
@@ -11771,31 +12364,31 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1">
         <v>-655100000</v>
@@ -11890,31 +12483,31 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1">
         <v>573300000</v>
@@ -12001,7 +12594,7 @@
         <v>64955000</v>
       </c>
       <c r="AM71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12009,31 +12602,31 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10">
         <v>1441100000</v>
@@ -12128,31 +12721,31 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11">
         <v>2891000000</v>
@@ -12247,118 +12840,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12366,118 +12959,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12485,16 +13078,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>171100000</v>
@@ -12604,16 +13197,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>65700000</v>
@@ -12723,16 +13316,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>3400000</v>
@@ -12842,73 +13435,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>23583000</v>
@@ -12958,158 +13551,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="14">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.594596911452066E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5916566201166026E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.652433279509872E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.6607446271766098E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.5978454760596073E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.5519736067849235E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.2850566064581916E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.9765275783558013E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.3633961324327995E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.7941591068822974E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.3259611742624792E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4985427457084997E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.0657650895693458E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.4360153899023082E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.3335385295779159E-3</v>
       </c>
     </row>
@@ -13118,16 +13711,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>20300000</v>
@@ -13237,73 +13830,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>31675000</v>
@@ -13356,16 +13949,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-1100000</v>
@@ -13469,83 +14062,83 @@
       <c r="AM83" s="1">
         <v>-186963000</v>
       </c>
-      <c r="AT83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="63"/>
+      <c r="AT83" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU83" s="31"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1">
         <v>26435000</v>
@@ -13590,67 +14183,67 @@
         <v>39732000</v>
       </c>
       <c r="AM84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AT84" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="32"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1">
         <v>-106520000</v>
@@ -13659,10 +14252,10 @@
         <v>-81427000</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1">
         <v>275000</v>
@@ -13713,12 +14306,12 @@
         <v>20822000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU85" s="34">
         <f>AM17</f>
         <v>137557000</v>
       </c>
@@ -13728,16 +14321,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>5100000</v>
@@ -13773,7 +14366,7 @@
         <v>-165100000</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R86" s="1">
         <v>223849000</v>
@@ -13785,7 +14378,7 @@
         <v>17150000</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V86" s="1">
         <v>-169022000</v>
@@ -13839,12 +14432,12 @@
         <v>158672000</v>
       </c>
       <c r="AM86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT86" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU86" s="34">
         <f>AM56</f>
         <v>1447368000</v>
       </c>
@@ -13854,16 +14447,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>265600000</v>
@@ -13967,10 +14560,10 @@
       <c r="AM87" s="10">
         <v>2327837000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU87" s="34">
         <f>AM61</f>
         <v>3343977000</v>
       </c>
@@ -13980,16 +14573,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-162000000</v>
@@ -14049,218 +14642,218 @@
         <v>-203892000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-198204000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-135106000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-199286000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-327255000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-300513000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-351580000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-369177000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>-355605000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-265825000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>-250066000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-278842000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-298090000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-444069000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>-493338000</v>
       </c>
       <c r="AM88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+        <v>-787376000</v>
+      </c>
+      <c r="AT88" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU88" s="36">
         <f>AU85/(AU86+AU87)</f>
         <v>2.8709475105633177E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="15">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="15"/>
+        <v>6.6914498141263934E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="15"/>
+        <v>6.6062748563853288E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="15"/>
+        <v>7.7987030905077262E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="15"/>
+        <v>7.7582458537797383E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="15"/>
+        <v>0.1079066567283986</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.8460471951862016E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.1482645568591325E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="15"/>
+        <v>0.14955004637405059</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.0188740644321513E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.6364866083506177E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.9061421843914477E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.2772752083878233E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.5132002016132126E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.2214997049984262E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="15"/>
+        <v>5.2401995805443718E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.4225566055456821E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.0179082848667093E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.0150235729324892E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.1217648233696863E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.8615421542528318E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.5498106316530871E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.5141189160517998E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="15"/>
+        <v>5.3817860448349783E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.5229019007707712E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.9199008295318314E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.9742460287090624E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.8141736159377772E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.572829747018251E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.3273695995409976E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.5789953856139638E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.7325393689054638E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="15"/>
+        <v>5.4488872561127569E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="15"/>
+        <v>5.4990465746632862E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="15"/>
+        <v>7.5569035675545765E-2</v>
+      </c>
+      <c r="AT89" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="13">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="13"/>
-        <v>6.6914498141263934E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="13"/>
-        <v>6.6062748563853288E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="13"/>
-        <v>7.7987030905077262E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="13"/>
-        <v>7.7582458537797383E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="13"/>
-        <v>0.1079066567283986</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.8460471951862016E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.1482645568591325E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="13"/>
-        <v>0.14955004637405059</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.0188740644321513E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.6364866083506177E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.9061421843914477E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.2772752083878233E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.5132002016132126E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.2214997049984262E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="13"/>
-        <v>5.2401995805443718E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.4225566055456821E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.0179082848667093E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.0150235729324892E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.1217648233696863E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="34">
         <f>AM27</f>
         <v>272254000</v>
       </c>
@@ -14270,49 +14863,49 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-135000000</v>
@@ -14321,10 +14914,10 @@
         <v>-17079000</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1">
         <v>-166859000</v>
@@ -14339,13 +14932,13 @@
         <v>-100461000</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1">
         <v>-15220000</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1">
         <v>-5750000</v>
@@ -14354,7 +14947,7 @@
         <v>-172856000</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1">
         <v>-396265000</v>
@@ -14381,12 +14974,12 @@
         <v>-1729490000</v>
       </c>
       <c r="AM90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="34">
         <f>AM25</f>
         <v>1917071000</v>
       </c>
@@ -14396,123 +14989,123 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1">
         <v>-179100000</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1">
         <v>-97131000</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AT91" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU91" s="36">
         <f>AU89/AU90</f>
         <v>0.14201560609909597</v>
       </c>
@@ -14522,121 +15115,121 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>78000000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1">
         <v>259700000</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF92" s="1">
         <v>95316000</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT92" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
@@ -14648,16 +15241,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-2300000</v>
@@ -14705,16 +15298,16 @@
         <v>1645000</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1">
         <v>2713000</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="1">
         <v>-198204000</v>
@@ -14761,26 +15354,26 @@
       <c r="AM93" s="1">
         <v>-787376000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="32"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-164300000</v>
@@ -14884,11 +15477,12 @@
       <c r="AM94" s="10">
         <v>-787376000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
+      <c r="AT94" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="AU94" s="37">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14896,73 +15490,73 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-376370000</v>
@@ -14992,7 +15586,7 @@
         <v>-500000000</v>
       </c>
       <c r="AH95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI95" s="1">
         <v>-910844000</v>
@@ -15009,12 +15603,12 @@
       <c r="AM95" s="1">
         <v>-4741000</v>
       </c>
-      <c r="AT95" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="58" cm="1">
+      <c r="AT95" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.31130000000000002</v>
+        <v>0.29260000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15022,34 +15616,34 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>47900000</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1">
         <v>15100000</v>
@@ -15091,54 +15685,54 @@
         <v>50497000</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU96" s="40">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15147,28 +15741,28 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-47900000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1">
         <v>-131800000</v>
@@ -15261,11 +15855,11 @@
         <v>-388964000</v>
       </c>
       <c r="AT97" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>5.4351465000000002E-2</v>
+        <v>5.2251888000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15273,16 +15867,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-65600000</v>
@@ -15386,26 +15980,26 @@
       <c r="AM98" s="1">
         <v>-775030000</v>
       </c>
-      <c r="AT98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AT98" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="32"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-53300000</v>
@@ -15509,10 +16103,10 @@
       <c r="AM99" s="1">
         <v>-246990000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU99" s="34">
         <f>AU86+AU87</f>
         <v>4791345000</v>
       </c>
@@ -15522,16 +16116,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-118900000</v>
@@ -15635,12 +16229,12 @@
       <c r="AM100" s="10">
         <v>-1415725000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU100" s="36">
         <f>AU99/AU103</f>
-        <v>8.3049241915254271E-2</v>
+        <v>8.9387799051542066E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15648,94 +16242,94 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF101" s="1">
         <v>-10364000</v>
@@ -15761,12 +16355,12 @@
       <c r="AM101" s="1">
         <v>9887000</v>
       </c>
-      <c r="AT101" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="50" cm="1">
+      <c r="AT101" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU101" s="41" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>52901475422</v>
+        <v>48810433440</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15774,16 +16368,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-118900000</v>
@@ -15887,12 +16481,12 @@
       <c r="AM102" s="10">
         <v>134623000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU102" s="36">
         <f>AU101/AU103</f>
-        <v>0.91695075808474569</v>
+        <v>0.91061220094845796</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15900,16 +16494,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>70100000</v>
@@ -16014,11 +16608,11 @@
         <v>329266000</v>
       </c>
       <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="38">
+        <v>142</v>
+      </c>
+      <c r="AU103" s="42">
         <f>AU99+AU101</f>
-        <v>57692820422</v>
+        <v>53601778440</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16026,46 +16620,46 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P104" s="11">
         <v>118100000</v>
@@ -16139,500 +16733,628 @@
       <c r="AM104" s="11">
         <v>463889000</v>
       </c>
-      <c r="AT104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="65"/>
+      <c r="AT104" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="32"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="16">(B22*(1-$AU$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.68725868725868722</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AK105" si="14">(H106/G106)-1</f>
-        <v>2.7407407407407409</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.61716171617161719</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.94612068965517238</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="14"/>
-        <v>78.44</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.72104733131923471</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="14"/>
-        <v>-1.3888238736102985</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="14"/>
-        <v>-3.287434161023326</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.24868421052631584</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="14"/>
-        <v>-7.0490367775831841E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.29004239284032041</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.99469833063138058</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="14"/>
-        <v>-9.8284825187625824E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.2401792909966769</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.60720077586276</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.55539726446396398</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.96173964412971058</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="14"/>
-        <v>9.579725585641552E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.5885129682195136</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="14"/>
-        <v>2.8898944129308233</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.23943065092216598</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.66668381109129982</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="14"/>
-        <v>2.5013330475782256</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="14"/>
-        <v>2.5258887374963512E-2</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.44186824025007942</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.8348037789453866</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.16748985012464346</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.38913359822632798</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.28185191159864487</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.13708517907930839</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.12980041931795461</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="15">(AL106/AK106)-1</f>
-        <v>0.26150071023687005</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="16">(AM106/AL106)-1</f>
-        <v>0.13947575530542711</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="F105" s="1">
+        <f t="shared" si="16"/>
+        <v>190318355.8668406</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="16"/>
+        <v>130723530.06226683</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="16"/>
+        <v>242271308.9395228</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="16"/>
+        <v>149188917.4683671</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="16"/>
+        <v>157770464.89149332</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="16"/>
+        <v>297699393.34536904</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="16"/>
+        <v>452186831.52580166</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="16"/>
+        <v>13331012.20559907</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="16"/>
+        <v>487601765.03634965</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="16"/>
+        <v>355940771.52072084</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="16"/>
+        <v>404498485.55426478</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="16"/>
+        <v>489956982.86239791</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="16"/>
+        <v>698055335.51652491</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="16"/>
+        <v>528822348.46388054</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="16"/>
+        <v>543925019.98934829</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="16"/>
+        <v>866669786.53633583</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="16"/>
+        <v>610845202.53762114</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="16"/>
+        <v>812720274.04149342</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="16"/>
+        <v>617389405.50037003</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="16"/>
+        <v>424646277.99335551</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="16"/>
+        <v>1151821334.5509896</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="16"/>
+        <v>885191555.82970059</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="16"/>
+        <v>470987559.12848282</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="16"/>
+        <v>1100959746.0073204</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="16"/>
+        <v>1225974521.6113539</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="16"/>
+        <v>847262770.1890018</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="16"/>
+        <v>950113026.63020825</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="16"/>
+        <v>1006808996.4310136</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="16"/>
+        <v>971112085.82624221</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="16"/>
+        <v>1338165372.9387174</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="16"/>
+        <v>1451271909.4149356</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="16"/>
+        <v>1188717063.0383537</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="16"/>
+        <v>1621451581.4719434</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>1732483963.9340429</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$106)</f>
+        <v>1815755215.6524761</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" ref="AO105:AR105" si="17">AN105*(1+$AU$106)</f>
+        <v>1903028871.7262194</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="17"/>
+        <v>1994497306.3575675</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="17"/>
+        <v>2090362140.1493342</v>
+      </c>
+      <c r="AR105" s="27">
+        <f t="shared" si="17"/>
+        <v>2190834684.5299439</v>
+      </c>
+      <c r="AS105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT105" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU105" s="44">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.1883309348100218E-2</v>
+        <v>4.9783032173030296E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>103600000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>32400000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>121200000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>46400000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>198600000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>341800000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-132900000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>304000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>228400000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>212300000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>273876000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>546300000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>492607000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>374293000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>601564000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>267457000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>524681000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>574944000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>236582000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>920279000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>699936000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>233300000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>816861000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>837494000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>467432000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>857646000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>713999000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>991840000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>1271392000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>1445681000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>1258031000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>1587007000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>1808356000</v>
-      </c>
-      <c r="AN106" s="39">
-        <f>AM106*(1+$AU$106)</f>
-        <v>1873443542.4482684</v>
-      </c>
-      <c r="AO106" s="39">
-        <f t="shared" ref="AO106:AR106" si="17">AN106*(1+$AU$106)</f>
-        <v>1940873758.6742415</v>
-      </c>
-      <c r="AP106" s="39">
-        <f t="shared" si="17"/>
-        <v>2010730967.7384081</v>
-      </c>
-      <c r="AQ106" s="39">
-        <f t="shared" si="17"/>
-        <v>2083102523.568522</v>
-      </c>
-      <c r="AR106" s="39">
-        <f t="shared" si="17"/>
-        <v>2158078924.1925478</v>
-      </c>
-      <c r="AS106" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="42">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f>(F107/E107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.68725868725868722</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>2.7407407407407409</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-0.61716171617161719</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-0.94612068965517238</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>78.44</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.72104733131923471</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-1.3888238736102985</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-3.287434161023326</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-0.24868421052631584</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-7.0490367775831841E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.29004239284032041</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>0.99469833063138058</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-9.8284825187625824E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-0.2401792909966769</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.60720077586276</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-0.55539726446396398</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0.96173964412971058</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>9.579725585641552E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-0.5885129682195136</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>2.8898944129308233</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>-0.23943065092216598</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>-0.66668381109129982</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>2.5013330475782256</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>2.5258887374963512E-2</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>-0.44186824025007942</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>0.8348037789453866</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>-0.16748985012464346</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>0.38913359822632798</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
+        <v>0.28185191159864487</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
+        <v>0.13708517907930839</v>
+      </c>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
+        <v>-0.12980041931795461</v>
+      </c>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
+        <v>0.26150071023687005</v>
+      </c>
+      <c r="AM106" s="15">
+        <f>(AM107/AL107)-1</f>
+        <v>0.13947575530542711</v>
+      </c>
+      <c r="AN106" s="58">
+        <v>1771000000</v>
+      </c>
+      <c r="AO106" s="58">
+        <v>2083000000</v>
+      </c>
+      <c r="AP106" s="58">
+        <v>2377000000</v>
+      </c>
+      <c r="AQ106" s="58">
+        <v>2420000000</v>
+      </c>
+      <c r="AR106" s="58">
+        <v>2454000000</v>
+      </c>
+      <c r="AS106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT106" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU106" s="46">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>3.5992659879066038E-2</v>
+        <v>4.8064659443856871E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="40"/>
-      <c r="AO107" s="40"/>
-      <c r="AP107" s="40"/>
-      <c r="AQ107" s="40"/>
-      <c r="AR107" s="43">
+      <c r="A107" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>103600000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>32400000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>121200000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>46400000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>198600000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>341800000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-132900000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>304000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>228400000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>212300000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>273876000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>546300000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>492607000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>374293000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>601564000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>267457000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>524681000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>574944000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>236582000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>920279000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>699936000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>233300000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>816861000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>837494000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>467432000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>857646000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>713999000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>991840000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>1271392000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>1445681000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>1258031000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>1587007000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>1808356000</v>
+      </c>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="69">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>82282685835.09346</v>
-      </c>
-      <c r="AS107" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="46">
-        <v>2.5000000000000001E-2</v>
+        <v>84043826882.967178</v>
+      </c>
+      <c r="AS107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT107" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU107" s="48">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="43">
+      <c r="AN108" s="69">
         <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
-        <v>1873443542.4482684</v>
-      </c>
-      <c r="AO108" s="43">
+        <v>1771000000</v>
+      </c>
+      <c r="AO108" s="69">
         <f t="shared" si="18"/>
-        <v>1940873758.6742415</v>
-      </c>
-      <c r="AP108" s="43">
+        <v>2083000000</v>
+      </c>
+      <c r="AP108" s="69">
         <f t="shared" si="18"/>
-        <v>2010730967.7384081</v>
-      </c>
-      <c r="AQ108" s="43">
+        <v>2377000000</v>
+      </c>
+      <c r="AQ108" s="69">
         <f>AQ107+AQ106</f>
-        <v>2083102523.568522</v>
-      </c>
-      <c r="AR108" s="43">
+        <v>2420000000</v>
+      </c>
+      <c r="AR108" s="69">
         <f>AR107+AR106</f>
-        <v>84440764759.286011</v>
-      </c>
-      <c r="AS108" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="48">
+        <v>86497826882.967178</v>
+      </c>
+      <c r="AS108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT108" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU108" s="46">
         <f>AU105</f>
-        <v>5.1883309348100218E-2</v>
+        <v>4.9783032173030296E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="61"/>
+      <c r="AN109" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO109" s="51"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="50">
+      <c r="AN110" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO110" s="41">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>72535716267.870193</v>
+        <v>75467716714.770432</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="50">
+      <c r="AN111" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO111" s="41">
         <f>AM40</f>
         <v>463889000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="50">
+      <c r="AN112" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO112" s="41">
         <f>AU99</f>
         <v>4791345000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="50">
+      <c r="AN113" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO113" s="41">
         <f>AO110+AO111-AO112</f>
-        <v>68208260267.870193</v>
+        <v>71140260714.770432</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="51">
+      <c r="AN114" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO114" s="52">
         <f>AM34*(1+(5*AS16))</f>
         <v>215588793.22966194</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO115" s="53">
+      <c r="AN115" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>316.3812888697301</v>
+        <v>329.98125574637959</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="59" cm="1">
+      <c r="AN116" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>258.815</v>
+        <v>238.8</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="55">
+      <c r="AN117" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO117" s="56">
         <f>AO115/AO116-1</f>
-        <v>0.22242253683028457</v>
+        <v>0.38183105421431973</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="56" t="str">
+      <c r="AN118" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO118" s="57" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -16725,8 +17447,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/47111/000004711123000012/0000047111-23-000012-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/47111/000004711123000012/0000047111-23-000012-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:HSY/explorer/revenue_proj" xr:uid="{E846C8AB-18C0-7D49-AFC4-C6B38068DA1E}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{1667E0FD-CE42-694E-8C2C-7DD141B2CF4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Consumer/Hershey's.xlsx
+++ b/Consumer/Hershey's.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC129A4-DDAA-8A4C-AC4A-1211529743D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C67842-232D-A147-BB89-6A35B24ED046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,24 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$B$107:$AM$107</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$B$1:$AM$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$28:$AM$28</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$107:$AM$107</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$1:$AM$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$B$28:$AM$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$A$107</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -603,8 +585,8 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -953,80 +935,68 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1035,6 +1005,18 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2795,8 +2777,9 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2807,7 +2790,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0119999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2827,6 +2810,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2954,34 +2938,37 @@
     <v>Powered by Refinitiv</v>
     <v>276.88049999999998</v>
     <v>211.49</v>
-    <v>0.29260000000000003</v>
-    <v>-2.42</v>
-    <v>-1.0032000000000001E-2</v>
+    <v>0.28310000000000002</v>
+    <v>-1.86</v>
+    <v>-8.2430000000000003E-3</v>
+    <v>0.06</v>
+    <v>2.6810000000000001E-4</v>
     <v>USD</v>
     <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
     <v>18075</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>P O BOX 810-EXTERNAL RPTG &amp; COMPLIANCE, 100 CRYSTAL A DRIVE, HERSHEY, PA, 17033-0810 US</v>
-    <v>241</v>
+    <v>19 East Chocolate Avenue, External Rptg &amp; Compliance, HERSHEY, PA, 17033 US</v>
+    <v>227.655</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45119.999673356251</v>
+    <v>45148.998095207811</v>
     <v>0</v>
-    <v>237.88</v>
-    <v>48810433440</v>
+    <v>223.2</v>
+    <v>45757871341</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
-    <v>240</v>
-    <v>28.9771</v>
-    <v>241.22</v>
-    <v>238.8</v>
-    <v>204398800</v>
+    <v>225.63</v>
+    <v>25.749700000000001</v>
+    <v>225.65</v>
+    <v>223.79</v>
+    <v>223.85</v>
+    <v>204467900</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>1470263</v>
-    <v>1191338</v>
+    <v>979558</v>
+    <v>1312282</v>
     <v>1927</v>
   </rv>
   <rv s="2">
@@ -3013,6 +3000,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3033,6 +3022,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3049,7 +3039,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3060,13 +3050,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3132,13 +3125,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3183,6 +3182,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3190,6 +3192,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3554,7 +3559,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO100" sqref="AO100"/>
+      <selection pane="bottomRight" activeCell="AQ13" sqref="AQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5767,17 +5772,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>7.5383794892730453E-3</v>
       </c>
-      <c r="AT16" s="59">
+      <c r="AT16" s="55">
         <f>AU101/AM3</f>
-        <v>4.6846200366358799</v>
-      </c>
-      <c r="AU16" s="59">
+        <v>4.3916479697184858</v>
+      </c>
+      <c r="AU16" s="55">
         <f>AU101/AM28</f>
-        <v>29.675297276231944</v>
-      </c>
-      <c r="AV16" s="61">
+        <v>27.819429967589098</v>
+      </c>
+      <c r="AV16" s="57">
         <f>AU101/AM107</f>
-        <v>26.991606431476988</v>
+        <v>25.303574816573729</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6148,36 +6153,36 @@
       <c r="AM19" s="10">
         <v>2433587000</v>
       </c>
-      <c r="AN19" s="64">
+      <c r="AN19" s="60">
         <v>3079000000</v>
       </c>
-      <c r="AO19" s="64">
+      <c r="AO19" s="60">
         <v>3250000000</v>
       </c>
-      <c r="AP19" s="64">
+      <c r="AP19" s="60">
         <v>3409000000</v>
       </c>
-      <c r="AQ19" s="64">
+      <c r="AQ19" s="60">
         <v>3477000000</v>
       </c>
-      <c r="AR19" s="64">
+      <c r="AR19" s="60">
         <v>3586000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-4327456000</v>
       </c>
-      <c r="AT19" s="59">
+      <c r="AT19" s="55">
         <f>AU101/AN3</f>
-        <v>4.3367777378942689</v>
-      </c>
-      <c r="AU19" s="60">
+        <v>4.0655594261217241</v>
+      </c>
+      <c r="AU19" s="56">
         <f>AO116/AN31</f>
-        <v>24.97907949790795</v>
-      </c>
-      <c r="AV19" s="61">
+        <v>23.40899581589958</v>
+      </c>
+      <c r="AV19" s="57">
         <f>AU101/AN106</f>
-        <v>27.560944912478824</v>
+        <v>25.837307363636363</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6472,23 +6477,23 @@
       <c r="AM21" s="2">
         <v>0.2336</v>
       </c>
-      <c r="AN21" s="65">
+      <c r="AN21" s="61">
         <f>AN19/AN3</f>
         <v>0.2735673034207019</v>
       </c>
-      <c r="AO21" s="65">
+      <c r="AO21" s="61">
         <f t="shared" ref="AO21:AR21" si="6">AO19/AO3</f>
         <v>0.27697289926708712</v>
       </c>
-      <c r="AP21" s="65">
+      <c r="AP21" s="61">
         <f t="shared" si="6"/>
         <v>0.27983910687900182</v>
       </c>
-      <c r="AQ21" s="65">
+      <c r="AQ21" s="61">
         <f t="shared" si="6"/>
         <v>0.27549322557642025</v>
       </c>
-      <c r="AR21" s="65">
+      <c r="AR21" s="61">
         <f t="shared" si="6"/>
         <v>0.27232685297691372</v>
       </c>
@@ -6617,13 +6622,13 @@
       <c r="AM22" s="10">
         <v>2260787000</v>
       </c>
-      <c r="AU22" s="62">
+      <c r="AU22" s="58">
         <f>(-1*AM98)/AU101</f>
-        <v>1.5878367500110444E-2</v>
-      </c>
-      <c r="AV22" s="63">
+        <v>1.693763230864188E-2</v>
+      </c>
+      <c r="AV22" s="59">
         <f>AM107/AU101</f>
-        <v>3.7048554428899164E-2</v>
+        <v>3.9520107623093811E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7339,19 +7344,19 @@
       <c r="AM28" s="11">
         <v>1644817000</v>
       </c>
-      <c r="AN28" s="66">
+      <c r="AN28" s="62">
         <v>1954000000</v>
       </c>
-      <c r="AO28" s="66">
+      <c r="AO28" s="62">
         <v>2100000000</v>
       </c>
-      <c r="AP28" s="66">
+      <c r="AP28" s="62">
         <v>2299000000</v>
       </c>
-      <c r="AQ28" s="66">
+      <c r="AQ28" s="62">
         <v>2257000000</v>
       </c>
-      <c r="AR28" s="66">
+      <c r="AR28" s="62">
         <v>2327000000</v>
       </c>
     </row>
@@ -7647,23 +7652,23 @@
       <c r="AM30" s="2">
         <v>0.15790000000000001</v>
       </c>
-      <c r="AN30" s="67">
+      <c r="AN30" s="63">
         <f>AN28/AN3</f>
         <v>0.1736117281208352</v>
       </c>
-      <c r="AO30" s="67">
+      <c r="AO30" s="63">
         <f t="shared" ref="AO30:AR30" si="10">AO28/AO3</f>
         <v>0.17896710414181013</v>
       </c>
-      <c r="AP30" s="67">
+      <c r="AP30" s="63">
         <f t="shared" si="10"/>
         <v>0.18872106386471843</v>
       </c>
-      <c r="AQ30" s="67">
+      <c r="AQ30" s="63">
         <f t="shared" si="10"/>
         <v>0.17882893590048332</v>
       </c>
-      <c r="AR30" s="67">
+      <c r="AR30" s="63">
         <f t="shared" si="10"/>
         <v>0.17671628189550426</v>
       </c>
@@ -7786,19 +7791,19 @@
       <c r="AM31" s="12">
         <v>7.96</v>
       </c>
-      <c r="AN31" s="68">
+      <c r="AN31" s="64">
         <v>9.56</v>
       </c>
-      <c r="AO31" s="68">
+      <c r="AO31" s="64">
         <v>10.27</v>
       </c>
-      <c r="AP31" s="68">
+      <c r="AP31" s="64">
         <v>10.91</v>
       </c>
-      <c r="AQ31" s="68">
+      <c r="AQ31" s="64">
         <v>11.04</v>
       </c>
-      <c r="AR31" s="68">
+      <c r="AR31" s="64">
         <v>11.38</v>
       </c>
     </row>
@@ -14062,10 +14067,10 @@
       <c r="AM83" s="1">
         <v>-186963000</v>
       </c>
-      <c r="AT83" s="30" t="s">
+      <c r="AT83" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="AU83" s="31"/>
+      <c r="AU83" s="68"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -14185,10 +14190,10 @@
       <c r="AM84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT84" s="32" t="s">
+      <c r="AT84" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AU84" s="32"/>
+      <c r="AU84" s="69"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14308,10 +14313,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="33" t="s">
+      <c r="AT85" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AU85" s="34">
+      <c r="AU85" s="31">
         <f>AM17</f>
         <v>137557000</v>
       </c>
@@ -14434,10 +14439,10 @@
       <c r="AM86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT86" s="33" t="s">
+      <c r="AT86" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AU86" s="34">
+      <c r="AU86" s="31">
         <f>AM56</f>
         <v>1447368000</v>
       </c>
@@ -14560,10 +14565,10 @@
       <c r="AM87" s="10">
         <v>2327837000</v>
       </c>
-      <c r="AT87" s="33" t="s">
+      <c r="AT87" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="AU87" s="34">
+      <c r="AU87" s="31">
         <f>AM61</f>
         <v>3343977000</v>
       </c>
@@ -14686,10 +14691,10 @@
       <c r="AM88" s="1">
         <v>-787376000</v>
       </c>
-      <c r="AT88" s="35" t="s">
+      <c r="AT88" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="AU88" s="36">
+      <c r="AU88" s="33">
         <f>AU85/(AU86+AU87)</f>
         <v>2.8709475105633177E-2</v>
       </c>
@@ -14850,10 +14855,10 @@
         <f t="shared" si="15"/>
         <v>7.5569035675545765E-2</v>
       </c>
-      <c r="AT89" s="33" t="s">
+      <c r="AT89" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="34">
+      <c r="AU89" s="31">
         <f>AM27</f>
         <v>272254000</v>
       </c>
@@ -14976,10 +14981,10 @@
       <c r="AM90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT90" s="33" t="s">
+      <c r="AT90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="34">
+      <c r="AU90" s="31">
         <f>AM25</f>
         <v>1917071000</v>
       </c>
@@ -15102,10 +15107,10 @@
       <c r="AM91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT91" s="35" t="s">
+      <c r="AT91" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AU91" s="36">
+      <c r="AU91" s="33">
         <f>AU89/AU90</f>
         <v>0.14201560609909597</v>
       </c>
@@ -15228,10 +15233,10 @@
       <c r="AM92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT92" s="35" t="s">
+      <c r="AT92" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AU92" s="36">
+      <c r="AU92" s="33">
         <f>AU88*(1-AU91)</f>
         <v>2.4632281597719772E-2</v>
       </c>
@@ -15354,10 +15359,10 @@
       <c r="AM93" s="1">
         <v>-787376000</v>
       </c>
-      <c r="AT93" s="32" t="s">
+      <c r="AT93" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="AU93" s="32"/>
+      <c r="AU93" s="69"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15477,12 +15482,12 @@
       <c r="AM94" s="10">
         <v>-787376000</v>
       </c>
-      <c r="AT94" s="33" t="s">
+      <c r="AT94" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AU94" s="37">
+      <c r="AU94" s="34">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0119999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15603,12 +15608,12 @@
       <c r="AM95" s="1">
         <v>-4741000</v>
       </c>
-      <c r="AT95" s="38" t="s">
+      <c r="AT95" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AU95" s="39" cm="1">
+      <c r="AU95" s="36" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.29260000000000003</v>
+        <v>0.28310000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15729,10 +15734,10 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="33" t="s">
+      <c r="AT96" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="AU96" s="40">
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15854,12 +15859,12 @@
       <c r="AM97" s="1">
         <v>-388964000</v>
       </c>
-      <c r="AT97" s="35" t="s">
+      <c r="AT97" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="AU97" s="36">
+      <c r="AU97" s="33">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>5.2251888000000003E-2</v>
+        <v>5.2542428000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15980,10 +15985,10 @@
       <c r="AM98" s="1">
         <v>-775030000</v>
       </c>
-      <c r="AT98" s="32" t="s">
+      <c r="AT98" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AU98" s="32"/>
+      <c r="AU98" s="69"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -16103,10 +16108,10 @@
       <c r="AM99" s="1">
         <v>-246990000</v>
       </c>
-      <c r="AT99" s="33" t="s">
+      <c r="AT99" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="AU99" s="34">
+      <c r="AU99" s="31">
         <f>AU86+AU87</f>
         <v>4791345000</v>
       </c>
@@ -16229,12 +16234,12 @@
       <c r="AM100" s="10">
         <v>-1415725000</v>
       </c>
-      <c r="AT100" s="35" t="s">
+      <c r="AT100" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AU100" s="36">
+      <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>8.9387799051542066E-2</v>
+        <v>9.4785742427302172E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16355,12 +16360,12 @@
       <c r="AM101" s="1">
         <v>9887000</v>
       </c>
-      <c r="AT101" s="38" t="s">
+      <c r="AT101" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="AU101" s="41" cm="1">
+      <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>48810433440</v>
+        <v>45757871341</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16481,12 +16486,12 @@
       <c r="AM102" s="10">
         <v>134623000</v>
       </c>
-      <c r="AT102" s="35" t="s">
+      <c r="AT102" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AU102" s="36">
+      <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.91061220094845796</v>
+        <v>0.9052142575726978</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16607,12 +16612,12 @@
       <c r="AM103" s="1">
         <v>329266000</v>
       </c>
-      <c r="AT103" s="35" t="s">
+      <c r="AT103" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AU103" s="42">
+      <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>53601778440</v>
+        <v>50549216341</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16733,10 +16738,10 @@
       <c r="AM104" s="11">
         <v>463889000</v>
       </c>
-      <c r="AT104" s="32" t="s">
+      <c r="AT104" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AU104" s="32"/>
+      <c r="AU104" s="69"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16917,12 +16922,12 @@
       <c r="AS105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AT105" s="43" t="s">
+      <c r="AT105" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="AU105" s="44">
+      <c r="AU105" s="41">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>4.9783032173030296E-2</v>
+        <v>4.989694405200517E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16931,181 +16936,181 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="18">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.68725868725868722</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="18"/>
         <v>2.7407407407407409</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.61716171617161719</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.94612068965517238</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="18"/>
         <v>78.44</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.72104733131923471</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="18"/>
         <v>-1.3888238736102985</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="18"/>
         <v>-3.287434161023326</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.24868421052631584</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="18"/>
         <v>-7.0490367775831841E-2</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.29004239284032041</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.99469833063138058</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="18"/>
         <v>-9.8284825187625824E-2</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.2401792909966769</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.60720077586276</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.55539726446396398</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.96173964412971058</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="18"/>
         <v>9.579725585641552E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.5885129682195136</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="18"/>
         <v>2.8898944129308233</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.23943065092216598</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.66668381109129982</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="18"/>
         <v>2.5013330475782256</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="18"/>
         <v>2.5258887374963512E-2</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.44186824025007942</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.8348037789453866</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.16748985012464346</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.38913359822632798</v>
       </c>
       <c r="AI106" s="15">
-        <f>(AI107/AH107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.28185191159864487</v>
       </c>
       <c r="AJ106" s="15">
-        <f>(AJ107/AI107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.13708517907930839</v>
       </c>
       <c r="AK106" s="15">
-        <f>(AK107/AJ107)-1</f>
+        <f t="shared" si="18"/>
         <v>-0.12980041931795461</v>
       </c>
       <c r="AL106" s="15">
-        <f>(AL107/AK107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.26150071023687005</v>
       </c>
       <c r="AM106" s="15">
-        <f>(AM107/AL107)-1</f>
+        <f t="shared" si="18"/>
         <v>0.13947575530542711</v>
       </c>
-      <c r="AN106" s="58">
+      <c r="AN106" s="54">
         <v>1771000000</v>
       </c>
-      <c r="AO106" s="58">
+      <c r="AO106" s="54">
         <v>2083000000</v>
       </c>
-      <c r="AP106" s="58">
+      <c r="AP106" s="54">
         <v>2377000000</v>
       </c>
-      <c r="AQ106" s="58">
+      <c r="AQ106" s="54">
         <v>2420000000</v>
       </c>
-      <c r="AR106" s="58">
+      <c r="AR106" s="54">
         <v>2454000000</v>
       </c>
       <c r="AS106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AT106" s="45" t="s">
+      <c r="AT106" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="AU106" s="46">
+      <c r="AU106" s="43">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>4.8064659443856871E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="47" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -17226,135 +17231,135 @@
       <c r="AO107" s="28"/>
       <c r="AP107" s="28"/>
       <c r="AQ107" s="28"/>
-      <c r="AR107" s="69">
+      <c r="AR107" s="65">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>84043826882.967178</v>
+        <v>83723607190.284714</v>
       </c>
       <c r="AS107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AT107" s="47" t="s">
+      <c r="AT107" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="AU107" s="48">
+      <c r="AU107" s="45">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="69">
-        <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
+      <c r="AN108" s="65">
+        <f t="shared" ref="AN108:AP108" si="19">AN107+AN106</f>
         <v>1771000000</v>
       </c>
-      <c r="AO108" s="69">
-        <f t="shared" si="18"/>
+      <c r="AO108" s="65">
+        <f t="shared" si="19"/>
         <v>2083000000</v>
       </c>
-      <c r="AP108" s="69">
-        <f t="shared" si="18"/>
+      <c r="AP108" s="65">
+        <f t="shared" si="19"/>
         <v>2377000000</v>
       </c>
-      <c r="AQ108" s="69">
+      <c r="AQ108" s="65">
         <f>AQ107+AQ106</f>
         <v>2420000000</v>
       </c>
-      <c r="AR108" s="69">
+      <c r="AR108" s="65">
         <f>AR107+AR106</f>
-        <v>86497826882.967178</v>
+        <v>86177607190.284714</v>
       </c>
       <c r="AS108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AT108" s="49" t="s">
+      <c r="AT108" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AU108" s="46">
+      <c r="AU108" s="43">
         <f>AU105</f>
-        <v>4.9783032173030296E-2</v>
+        <v>4.989694405200517E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="51" t="s">
+      <c r="AN109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="AO109" s="51"/>
+      <c r="AO109" s="66"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="52" t="s">
+      <c r="AN110" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AO110" s="41">
+      <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>75467716714.770432</v>
+        <v>75177770137.28923</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="52" t="s">
+      <c r="AN111" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AO111" s="41">
+      <c r="AO111" s="38">
         <f>AM40</f>
         <v>463889000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="52" t="s">
+      <c r="AN112" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AO112" s="41">
+      <c r="AO112" s="38">
         <f>AU99</f>
         <v>4791345000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="52" t="s">
+      <c r="AN113" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="AO113" s="41">
+      <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>71140260714.770432</v>
+        <v>70850314137.28923</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="52" t="s">
+      <c r="AN114" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AO114" s="52">
+      <c r="AO114" s="48">
         <f>AM34*(1+(5*AS16))</f>
         <v>215588793.22966194</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="53" t="s">
+      <c r="AN115" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="AO115" s="54">
+      <c r="AO115" s="50">
         <f>AO113/AO114</f>
-        <v>329.98125574637959</v>
+        <v>328.63635013631699</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="52" t="s">
+      <c r="AN116" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AO116" s="55" cm="1">
+      <c r="AO116" s="51" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>238.8</v>
+        <v>223.79</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="53" t="s">
+      <c r="AN117" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AO117" s="56">
+      <c r="AO117" s="52">
         <f>AO115/AO116-1</f>
-        <v>0.38183105421431973</v>
+        <v>0.4685032849381876</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="53" t="s">
+      <c r="AN118" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AO118" s="57" t="str">
+      <c r="AO118" s="53" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Consumer/Hershey's.xlsx
+++ b/Consumer/Hershey's.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6918D9F1-45BF-744B-80AB-D7A84548148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9372F-1FB0-2645-8866-F4161DFA49A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,13 +1547,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1570,7 +1567,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1582,9 +1579,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1711,10 +1705,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>276.88049999999998</v>
-    <v>186.625</v>
-    <v>0.3448</v>
-    <v>4.18</v>
-    <v>2.1965999999999999E-2</v>
+    <v>183.73500000000001</v>
+    <v>0.35070000000000001</v>
+    <v>1.7</v>
+    <v>9.0500000000000008E-3</v>
     <v>USD</v>
     <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
     <v>18075</v>
@@ -1722,25 +1716,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>19 East Chocolate Avenue, External Rptg &amp; Compliance, HERSHEY, PA, 17033 US</v>
-    <v>194.7</v>
+    <v>191.05500000000001</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45224.99706395781</v>
+    <v>45232.958333344533</v>
     <v>0</v>
-    <v>189.51</v>
-    <v>39762872513</v>
+    <v>187.58500000000001</v>
+    <v>38762633810</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
-    <v>190.03</v>
-    <v>22.376100000000001</v>
-    <v>190.29</v>
-    <v>194.47</v>
-    <v>194.5</v>
-    <v>204467900</v>
+    <v>187.92</v>
+    <v>20.445499999999999</v>
+    <v>187.85</v>
+    <v>189.55</v>
+    <v>204498200</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>75</v>
-    <v>1526307</v>
+    <v>969913</v>
+    <v>1610186</v>
     <v>1927</v>
   </rv>
   <rv s="2">
@@ -1792,7 +1785,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1809,7 +1801,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1820,7 +1812,6 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -1893,15 +1884,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1946,7 +1935,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1954,7 +1942,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -15659,7 +15646,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15676,7 +15663,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>39762872513</v>
+        <v>38762633810</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -15704,7 +15691,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>67059765699.748825</v>
+        <v>66518508531.738304</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15742,21 +15729,21 @@
       </c>
       <c r="G4" s="50">
         <f>A5*(1+(5*G3))</f>
-        <v>198615782.76675129</v>
+        <v>198645215.54430628</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="46">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>60208162585.574966</v>
+        <v>59718101350.883904</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="52">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.081318445314605E-2</v>
+        <v>2.1350251999297774E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>212</v>
@@ -15771,7 +15758,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>204467900</v>
+        <v>204498200</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>214</v>
@@ -15799,14 +15786,14 @@
       </c>
       <c r="I5" s="46">
         <f>I4+G5-G6</f>
-        <v>55700345585.574966</v>
+        <v>55210284350.883904</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>194.47</v>
+        <v>189.55</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>219</v>
@@ -15824,7 +15811,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>3.5354203354672356</v>
+        <v>3.4464865128478706</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>221</v>
@@ -15852,14 +15839,14 @@
       </c>
       <c r="I6" s="59">
         <f>N25</f>
-        <v>5.6824166834350411E-2</v>
+        <v>5.7123802900988882E-2</v>
       </c>
       <c r="J6" s="51" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="60">
         <f>I5/G4</f>
-        <v>280.44269599152585</v>
+        <v>277.93412592194892</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>225</v>
@@ -15877,14 +15864,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64">
         <f>O20/F12</f>
-        <v>20.276834529831717</v>
+        <v>19.766768898521164</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="66">
         <f>F14/A3</f>
-        <v>4.5243210218573575E-2</v>
+        <v>4.6410675002581822E-2</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>228</v>
@@ -15911,7 +15898,7 @@
       </c>
       <c r="K7" s="73">
         <f>K6/K5-1</f>
-        <v>0.44208719078277303</v>
+        <v>0.46628396687918183</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>231</v>
@@ -16216,7 +16203,7 @@
       </c>
       <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -16266,7 +16253,7 @@
       </c>
       <c r="O15" s="96" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.3448</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="P15" s="45"/>
     </row>
@@ -16321,7 +16308,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.067488E-2</v>
+        <v>6.1112175000000005E-2</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -16396,7 +16383,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>39762872513</v>
+        <v>38762633810</v>
       </c>
       <c r="P20" s="45"/>
     </row>
@@ -16418,7 +16405,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>44716850513</v>
+        <v>43716611810</v>
       </c>
       <c r="P21" s="45"/>
     </row>
@@ -16441,7 +16428,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>0.11078548563163652</v>
+        <v>0.11332026419455493</v>
       </c>
       <c r="P22" s="45"/>
     </row>
@@ -16464,7 +16451,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.88921451436836352</v>
+        <v>0.88667973580544512</v>
       </c>
       <c r="P23" s="45"/>
     </row>
@@ -16504,7 +16491,7 @@
       <c r="M25" s="83"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.6824166834350411E-2</v>
+        <v>5.7123802900988882E-2</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="45"/>

--- a/Consumer/Hershey's.xlsx
+++ b/Consumer/Hershey's.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9372F-1FB0-2645-8866-F4161DFA49A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA2017-4BF3-D74E-914B-B440A03004BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -988,6 +994,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1071,7 +1083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1109,65 +1121,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1176,23 +1131,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,7 +1346,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1210,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1275,126 +1441,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="14" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1403,116 +1454,245 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,6 +1730,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1567,7 +1748,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1579,6 +1760,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1706,9 +1888,11 @@
     <v>Powered by Refinitiv</v>
     <v>276.88049999999998</v>
     <v>183.73500000000001</v>
-    <v>0.35070000000000001</v>
-    <v>1.7</v>
-    <v>9.0500000000000008E-3</v>
+    <v>0.34260000000000002</v>
+    <v>3.06</v>
+    <v>1.6284E-2</v>
+    <v>0.02</v>
+    <v>1.047E-4</v>
     <v>USD</v>
     <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
     <v>18075</v>
@@ -1716,24 +1900,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>19 East Chocolate Avenue, External Rptg &amp; Compliance, HERSHEY, PA, 17033 US</v>
-    <v>191.05500000000001</v>
+    <v>191.02</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45232.958333344533</v>
+    <v>45262.04158399297</v>
     <v>0</v>
-    <v>187.58500000000001</v>
-    <v>38762633810</v>
+    <v>187.8</v>
+    <v>39055066236</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
+    <v>188.21</v>
+    <v>20.2697</v>
     <v>187.92</v>
-    <v>20.445499999999999</v>
-    <v>187.85</v>
-    <v>189.55</v>
+    <v>190.98</v>
+    <v>191</v>
     <v>204498200</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>969913</v>
-    <v>1610186</v>
+    <v>1262863</v>
+    <v>1458097</v>
     <v>1927</v>
   </rv>
   <rv s="2">
@@ -1765,6 +1950,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1785,6 +1972,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1801,7 +1989,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1812,13 +2000,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1884,13 +2075,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1935,6 +2132,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1942,6 +2142,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2328,7 +2531,7 @@
   <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
@@ -15646,7 +15849,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15654,1695 +15857,1758 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="e" vm="1">
+    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="A3" s="51" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>38762633810</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>39055066236</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="53">
         <f>Financials!O8*0.01</f>
         <v>0.43909999999999999</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="53">
         <f>SUM(C11:E11)/3</f>
         <v>9.422739299895426E-2</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="68">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-5.7242405612310809E-3</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>66518508531.738304</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="69">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>73994113872.34137</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="114" t="s">
+      <c r="K3" s="71">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>2.1190387823158935E-2</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="54">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-4507817000</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="40">
         <f>Financials!O17*0.01</f>
         <v>0.22530000000000003</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>0.1269749036631421</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="74">
         <f>A5*(1+(5*G3))</f>
         <v>198645215.54430628</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="46">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>59718101350.883904</v>
-      </c>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="39">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>66486826344.583191</v>
+      </c>
+      <c r="J4" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="52">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.1350251999297774E-2</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="116" t="s">
+      <c r="K4" s="75" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>1.6284E-2</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" cm="1">
+      <c r="A5" s="54" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>204498200</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="53">
-        <f>Financials!O34*0.01</f>
-        <v>0.1648</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="40">
+        <f>F14</f>
+        <v>0.17435760647283721</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="48">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="40">
+        <f>SUM(C16:E16)/3</f>
         <v>8.1615233011392216E-2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="74">
         <f>Financials!O56</f>
         <v>446161000</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>55210284350.883904</v>
-      </c>
-      <c r="J5" s="49" t="s">
+        <v>61979009344.583191</v>
+      </c>
+      <c r="J5" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="54" cm="1">
+      <c r="K5" s="77" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>189.55</v>
-      </c>
-      <c r="L5" s="39" t="s">
+        <v>190.98</v>
+      </c>
+      <c r="L5" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="55" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="102">
         <f>Financials!O21</f>
         <v>145966000</v>
       </c>
-      <c r="P5" s="45"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>3.4464865128478706</v>
-      </c>
-      <c r="B6" s="47" t="s">
+        <v>3.4724874398506267</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="48">
-        <f>Financials!O190</f>
-        <v>0.16422665580562856</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="40">
+        <f>F17</f>
+        <v>0.15995376544856407</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="40">
         <f>Financials!O33/Financials!O126</f>
         <v>0.48445335790851157</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="74">
         <f>Financials!O96+Financials!O105</f>
         <v>4953978000</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="75">
         <f>N25</f>
-        <v>5.7123802900988882E-2</v>
-      </c>
-      <c r="J6" s="51" t="s">
+        <v>5.3373195120092608E-2</v>
+      </c>
+      <c r="J6" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="79">
         <f>I5/G4</f>
-        <v>277.93412592194892</v>
-      </c>
-      <c r="L6" s="61" t="s">
+        <v>312.00856851626133</v>
+      </c>
+      <c r="L6" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="62" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="102">
         <f>Financials!O96</f>
         <v>867783000</v>
       </c>
-      <c r="P6" s="45"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>19.766768898521164</v>
-      </c>
-      <c r="B7" s="65" t="s">
+        <v>19.915893032126466</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="66">
-        <f>F14/A3</f>
-        <v>4.6410675002581822E-2</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="60">
+        <f>F15/A3</f>
+        <v>4.6063166021255549E-2</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="81">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.21211221188509849</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="82">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.3408027801347033</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="84">
         <v>0.02</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="86">
         <f>K6/K5-1</f>
-        <v>0.46628396687918183</v>
-      </c>
-      <c r="L7" s="74" t="s">
+        <v>0.63372378529825824</v>
+      </c>
+      <c r="L7" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="62" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="102">
         <f>Financials!O105</f>
         <v>4086195000</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="76" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="104">
         <f>O5/(O6+O7)</f>
         <v>2.9464402143085818E-2</v>
       </c>
-      <c r="P8" s="45"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63">
         <v>2019</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="63">
         <v>2020</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="63">
         <v>2021</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="88">
         <v>2022</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="41">
         <v>2023</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="42">
         <v>2024</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="42">
         <v>2025</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="42">
         <v>2026</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="89">
         <v>2027</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="62" t="s">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="102">
         <f>Financials!O25</f>
         <v>245032000</v>
       </c>
-      <c r="P9" s="45"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="65">
         <v>7986252000</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="65">
         <v>8149719000</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="65">
         <v>8971337000</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="90">
         <v>10419294000</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="65">
         <v>11247000000</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="65">
         <v>11648000000</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="65">
         <v>12085000000</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="65">
         <v>12682000000</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="90">
         <v>13240000000</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="L10" s="43"/>
+      <c r="N10" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="102">
         <f>Financials!O24</f>
         <v>2034983000</v>
       </c>
-      <c r="P10" s="45"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89">
+      <c r="A11" s="66"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>2.0468550203524671E-2</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.10081550050989496</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>0.16139812828344313</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>7.9439739391171882E-2</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>3.5653952165021874E-2</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>3.7517170329670391E-2</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>4.9400082747207197E-2</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="92">
         <f t="shared" si="0"/>
         <v>4.3999369184671178E-2</v>
       </c>
-      <c r="K11" s="91">
+      <c r="K11" s="92">
         <f>SUM(F11:J11)/5</f>
         <v>4.9202062763548507E-2</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="62" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="92">
+      <c r="O11" s="105">
         <f>O9/O10</f>
         <v>0.12040985108966512</v>
       </c>
-      <c r="P11" s="45"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="65">
         <v>1149692000</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="65">
         <v>1278708000</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="65">
         <v>1477512000</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="65">
         <v>1644817000</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="93">
         <v>1961000000</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="65">
         <v>2102000000</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="65">
         <v>2210000000</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="65">
         <v>2276000000</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="90">
         <v>2285000000</v>
       </c>
-      <c r="K12" s="87" t="s">
+      <c r="K12" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="93" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="94">
+      <c r="O12" s="105">
         <f>O8*(1-O11)</f>
         <v>2.5916597868590845E-2</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89">
+      <c r="A13" s="66"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.11221788096290131</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="44">
         <f t="shared" si="1"/>
         <v>0.15547255511031444</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="44">
         <f t="shared" si="1"/>
         <v>0.11323427491621052</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>0.19222989548381375</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>7.1902090770015192E-2</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>5.1379638439581266E-2</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>2.9864253393665052E-2</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="92">
         <f t="shared" si="1"/>
         <v>3.9543057996485054E-3</v>
       </c>
-      <c r="K13" s="91">
+      <c r="K13" s="92">
         <f>SUM(F13:J13)/5</f>
         <v>6.986603677734475E-2</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="116" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="48">
+        <f>B12/B10</f>
+        <v>0.14395889335823614</v>
+      </c>
+      <c r="C14" s="48">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.15690209686984299</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.16469250904296651</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.15786261525972872</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.17435760647283721</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.18046016483516483</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.18287132809267687</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.17946696104715346</v>
+      </c>
+      <c r="J14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.17258308157099697</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="105">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B15" s="65">
         <v>1565377949</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C15" s="65">
         <v>1385465063</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D15" s="65">
         <v>1692133767</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E15" s="65">
         <v>1926377759</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F15" s="93">
         <v>1799000000</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G15" s="65">
         <v>2119000000</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H15" s="65">
         <v>2351000000</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I15" s="65">
         <v>2385000000</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J15" s="90">
         <v>2421000000</v>
       </c>
-      <c r="K14" s="87" t="s">
+      <c r="K15" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="92">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
-      </c>
-      <c r="P14" s="45"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="106" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="95"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-0.11493255422112758</v>
       </c>
-      <c r="D15" s="89">
-        <f t="shared" si="2"/>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
         <v>0.22134712176426774</v>
       </c>
-      <c r="E15" s="89">
-        <f t="shared" si="2"/>
+      <c r="E16" s="44">
+        <f t="shared" si="3"/>
         <v>0.13843113149103647</v>
       </c>
-      <c r="F15" s="90">
-        <f t="shared" si="2"/>
+      <c r="F16" s="45">
+        <f t="shared" si="3"/>
         <v>-6.6122938974400802E-2</v>
       </c>
-      <c r="G15" s="89">
-        <f t="shared" si="2"/>
+      <c r="G16" s="44">
+        <f t="shared" si="3"/>
         <v>0.17787659811006118</v>
       </c>
-      <c r="H15" s="89">
-        <f t="shared" si="2"/>
+      <c r="H16" s="44">
+        <f t="shared" si="3"/>
         <v>0.10948560641812177</v>
       </c>
-      <c r="I15" s="89">
-        <f t="shared" si="2"/>
+      <c r="I16" s="44">
+        <f t="shared" si="3"/>
         <v>1.4461931093151748E-2</v>
       </c>
-      <c r="J15" s="89">
-        <f t="shared" si="2"/>
+      <c r="J16" s="92">
+        <f t="shared" si="3"/>
         <v>1.5094339622641506E-2</v>
       </c>
-      <c r="K15" s="91">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="92">
+        <f>SUM(F16:J16)/5</f>
         <v>5.0159107253915078E-2</v>
       </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="96" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.35070000000000001</v>
-      </c>
-      <c r="P15" s="45"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="105">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="48">
+        <f>B15/B10</f>
+        <v>0.19600908523798147</v>
+      </c>
+      <c r="C17" s="48">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.17000157465551879</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.18861556164928373</v>
+      </c>
+      <c r="E17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.18488563227028626</v>
+      </c>
+      <c r="F17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.15995376544856407</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.18191964285714285</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.19453868431940421</v>
+      </c>
+      <c r="I17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.18806181990222362</v>
+      </c>
+      <c r="J17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.18285498489425983</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="108">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>5.6855954E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B18" s="97">
         <v>0.21415890332478912</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C18" s="97">
         <v>0.19848789008067821</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D18" s="97">
         <v>0.1972015147975443</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E18" s="97">
         <v>0.2097522287105904</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="92">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="103">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.1112175000000005E-2</v>
-      </c>
-      <c r="P17" s="45"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="116" t="s">
+      <c r="F18" s="98"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="45"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Food &amp; Tobacco</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="118" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1927</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="62" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="109">
         <f>O6+O7</f>
         <v>4953978000</v>
       </c>
-      <c r="P19" s="45"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="109" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>39055066236</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="121" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Food &amp; Tobacco</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1927</v>
+      </c>
+      <c r="D21" s="122"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="109">
+        <f>O19+O20</f>
+        <v>44009044236</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="121" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="105" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>38762633810</v>
-      </c>
-      <c r="P20" s="45"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="105">
-        <f>O19+O20</f>
-        <v>43716611810</v>
-      </c>
-      <c r="P21" s="45"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="76" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="106">
+      <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>0.11332026419455493</v>
-      </c>
-      <c r="P22" s="45"/>
+        <v>0.11256727079629641</v>
+      </c>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="102" t="s">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="107">
+      <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.88667973580544512</v>
-      </c>
-      <c r="P23" s="45"/>
+        <v>0.88743272920370353</v>
+      </c>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="109" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="110"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="111">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.7123802900988882E-2</v>
-      </c>
-      <c r="O25" s="112"/>
-      <c r="P25" s="45"/>
+        <v>5.3373195120092608E-2</v>
+      </c>
+      <c r="O25" s="115"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="45"/>
-      <c r="P83" s="45"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="45"/>
-      <c r="P85" s="45"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="45"/>
-      <c r="P91" s="45"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="45"/>
-      <c r="P93" s="45"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="45"/>
-      <c r="P98" s="45"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="45"/>
-      <c r="P99" s="45"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="45"/>
-      <c r="P107" s="45"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="45"/>
-      <c r="P108" s="45"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="45"/>
-      <c r="P110" s="45"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17350,8 +17616,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:HSY/explorer/revenue_proj" xr:uid="{7EEE1C8D-73D3-8D47-BA63-CE853EBB6902}"/>

--- a/Consumer/Hershey's.xlsx
+++ b/Consumer/Hershey's.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA2017-4BF3-D74E-914B-B440A03004BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCD11F-F7FC-5E43-B9D2-299E907CCBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1688,11 +1688,14 @@
     <xf numFmtId="9" fontId="3" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1725,10 +1728,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1748,7 +1753,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1761,6 +1766,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1888,11 +1895,11 @@
     <v>Powered by Refinitiv</v>
     <v>276.88049999999998</v>
     <v>183.73500000000001</v>
-    <v>0.34260000000000002</v>
-    <v>3.06</v>
-    <v>1.6284E-2</v>
-    <v>0.02</v>
-    <v>1.047E-4</v>
+    <v>0.34329999999999999</v>
+    <v>-3.32</v>
+    <v>-1.7561E-2</v>
+    <v>0.28999999999999998</v>
+    <v>1.5609999999999999E-3</v>
     <v>USD</v>
     <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
     <v>18075</v>
@@ -1900,25 +1907,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>19 East Chocolate Avenue, External Rptg &amp; Compliance, HERSHEY, PA, 17033 US</v>
-    <v>191.02</v>
+    <v>188.64500000000001</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45262.04158399297</v>
+    <v>45269.018419050779</v>
     <v>0</v>
-    <v>187.8</v>
-    <v>39055066236</v>
+    <v>184.5</v>
+    <v>37983495668</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
-    <v>188.21</v>
-    <v>20.2697</v>
-    <v>187.92</v>
-    <v>190.98</v>
-    <v>191</v>
+    <v>188.5</v>
+    <v>20.392700000000001</v>
+    <v>189.06</v>
+    <v>185.74</v>
+    <v>186.03</v>
     <v>204498200</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>1262863</v>
-    <v>1458097</v>
+    <v>1505125</v>
+    <v>1326350</v>
     <v>1927</v>
   </rv>
   <rv s="2">
@@ -2083,9 +2090,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15849,7 +15856,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15866,7 +15873,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>39055066236</v>
+        <v>37983495668</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>201</v>
@@ -15894,14 +15901,14 @@
       </c>
       <c r="I3" s="69">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>73994113872.34137</v>
+        <v>76121638017.30394</v>
       </c>
       <c r="J3" s="70" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="71">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.1190387823158935E-2</v>
+        <v>2.178819999174595E-2</v>
       </c>
       <c r="L3" s="72" t="s">
         <v>212</v>
@@ -15944,14 +15951,14 @@
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>66486826344.583191</v>
+        <v>68413250560.407478</v>
       </c>
       <c r="J4" s="73" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="75" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.6284E-2</v>
+        <v>-1.7561E-2</v>
       </c>
       <c r="L4" s="76" t="s">
         <v>251</v>
@@ -15994,14 +16001,14 @@
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>61979009344.583191</v>
+        <v>63905433560.407471</v>
       </c>
       <c r="J5" s="73" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="77" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>190.98</v>
+        <v>185.74</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>219</v>
@@ -16019,7 +16026,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>3.4724874398506267</v>
+        <v>3.3772113157286388</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>221</v>
@@ -16047,14 +16054,14 @@
       </c>
       <c r="I6" s="75">
         <f>N25</f>
-        <v>5.3373195120092608E-2</v>
+        <v>5.2440447477478773E-2</v>
       </c>
       <c r="J6" s="73" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="79">
         <f>I5/G4</f>
-        <v>312.00856851626133</v>
+        <v>321.70638182903457</v>
       </c>
       <c r="L6" s="80" t="s">
         <v>225</v>
@@ -16072,14 +16079,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>19.915893032126466</v>
+        <v>19.369452150943395</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>4.6063166021255549E-2</v>
+        <v>4.7362676034991842E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>228</v>
@@ -16106,7 +16113,7 @@
       </c>
       <c r="K7" s="86">
         <f>K6/K5-1</f>
-        <v>0.63372378529825824</v>
+        <v>0.73202531403593496</v>
       </c>
       <c r="L7" s="87" t="s">
         <v>231</v>
@@ -16419,7 +16426,7 @@
       </c>
       <c r="O14" s="105">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -16464,7 +16471,7 @@
       </c>
       <c r="O15" s="106" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.34260000000000002</v>
+        <v>0.34329999999999999</v>
       </c>
       <c r="P15" s="38"/>
     </row>
@@ -16565,7 +16572,7 @@
       </c>
       <c r="O17" s="108">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>5.6855954E-2</v>
+        <v>5.5899807000000003E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
@@ -16641,7 +16648,7 @@
       </c>
       <c r="O20" s="109" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>39055066236</v>
+        <v>37983495668</v>
       </c>
       <c r="P20" s="38"/>
     </row>
@@ -16669,19 +16676,19 @@
       </c>
       <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>44009044236</v>
+        <v>42937473668</v>
       </c>
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="str" cm="1">
+      <c r="A22" s="123" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>The Hershey Company is a confectionery company. It produces snack, mints, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
@@ -16695,16 +16702,16 @@
       </c>
       <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>0.11256727079629641</v>
+        <v>0.11537655983919823</v>
       </c>
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -16718,16 +16725,16 @@
       </c>
       <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.88743272920370353</v>
+        <v>0.88462344016080174</v>
       </c>
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
@@ -16743,11 +16750,11 @@
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
@@ -16758,17 +16765,17 @@
       <c r="M25" s="43"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.3373195120092608E-2</v>
+        <v>5.2440447477478773E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -16782,11 +16789,11 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -16800,11 +16807,11 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -16818,11 +16825,11 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
@@ -16836,11 +16843,11 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
